--- a/Data/Cleaned data/Andamento mensile per settore (Tutti i settori).xlsx
+++ b/Data/Cleaned data/Andamento mensile per settore (Tutti i settori).xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albertocalabrese99/Desktop/Statistical learning/Statistical_Learning_Project/Data/Cleaned data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA80821-B667-034E-9A8D-CCBAB59CD233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A714405F-F08B-934A-911D-5808EA3BAAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Numero spettacoli" sheetId="2" r:id="rId1"/>
     <sheet name="Ingressi" sheetId="3" r:id="rId2"/>
     <sheet name="Spesa del pubblico" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
   <si>
     <t>Mese evento</t>
   </si>
@@ -67,6 +68,18 @@
   <si>
     <t>Dicembre</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Numero spettacoli</t>
+  </si>
+  <si>
+    <t>Ingressi</t>
+  </si>
+  <si>
+    <t>Spesa del pubblico</t>
+  </si>
 </sst>
 </file>
 
@@ -101,8 +114,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,7 +400,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B2" sqref="B2:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -658,7 +672,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F13"/>
+      <selection activeCell="B2" sqref="B2:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -929,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4089C873-6B3C-45DE-92F5-96CA69B91FCC}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1201,4 +1215,867 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5486295-C3F6-3D44-A653-95BB76867AFB}">
+  <dimension ref="A1:D61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B2">
+        <v>407032</v>
+      </c>
+      <c r="C2">
+        <v>23337474</v>
+      </c>
+      <c r="D2">
+        <v>482597644.24999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43132</v>
+      </c>
+      <c r="B3">
+        <v>375336</v>
+      </c>
+      <c r="C3">
+        <v>22230691</v>
+      </c>
+      <c r="D3">
+        <v>301164981.49999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43160</v>
+      </c>
+      <c r="B4">
+        <v>407807</v>
+      </c>
+      <c r="C4">
+        <v>21244449</v>
+      </c>
+      <c r="D4">
+        <v>328709780.68999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43191</v>
+      </c>
+      <c r="B5">
+        <v>388672</v>
+      </c>
+      <c r="C5">
+        <v>21888769</v>
+      </c>
+      <c r="D5">
+        <v>461044466.70000011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43221</v>
+      </c>
+      <c r="B6">
+        <v>356118</v>
+      </c>
+      <c r="C6">
+        <v>16985095</v>
+      </c>
+      <c r="D6">
+        <v>355097932.00999856</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43252</v>
+      </c>
+      <c r="B7">
+        <v>315634</v>
+      </c>
+      <c r="C7">
+        <v>14359139</v>
+      </c>
+      <c r="D7">
+        <v>471409667.89999866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43282</v>
+      </c>
+      <c r="B8">
+        <v>285838</v>
+      </c>
+      <c r="C8">
+        <v>14299256</v>
+      </c>
+      <c r="D8">
+        <v>571592151.58999908</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>43313</v>
+      </c>
+      <c r="B9">
+        <v>286319</v>
+      </c>
+      <c r="C9">
+        <v>16760893</v>
+      </c>
+      <c r="D9">
+        <v>500307016.8599996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B10">
+        <v>346191</v>
+      </c>
+      <c r="C10">
+        <v>17475565</v>
+      </c>
+      <c r="D10">
+        <v>390445461.99000031</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>43374</v>
+      </c>
+      <c r="B11">
+        <v>368703</v>
+      </c>
+      <c r="C11">
+        <v>18881092</v>
+      </c>
+      <c r="D11">
+        <v>343255489.01999986</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>43405</v>
+      </c>
+      <c r="B12">
+        <v>364995</v>
+      </c>
+      <c r="C12">
+        <v>21480956</v>
+      </c>
+      <c r="D12">
+        <v>283055203.18000036</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>43435</v>
+      </c>
+      <c r="B13">
+        <v>413872</v>
+      </c>
+      <c r="C13">
+        <v>23886894</v>
+      </c>
+      <c r="D13">
+        <v>362189051.33999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B14">
+        <v>388698</v>
+      </c>
+      <c r="C14">
+        <v>22251443</v>
+      </c>
+      <c r="D14">
+        <v>527684797.20000058</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>43497</v>
+      </c>
+      <c r="B15">
+        <v>361411</v>
+      </c>
+      <c r="C15">
+        <v>19439654</v>
+      </c>
+      <c r="D15">
+        <v>277577466.54000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>43525</v>
+      </c>
+      <c r="B16">
+        <v>413709</v>
+      </c>
+      <c r="C16">
+        <v>22641973</v>
+      </c>
+      <c r="D16">
+        <v>380245193.7099995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>43556</v>
+      </c>
+      <c r="B17">
+        <v>375260</v>
+      </c>
+      <c r="C17">
+        <v>23073264</v>
+      </c>
+      <c r="D17">
+        <v>382720255.57000047</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>43586</v>
+      </c>
+      <c r="B18">
+        <v>360580</v>
+      </c>
+      <c r="C18">
+        <v>19812794</v>
+      </c>
+      <c r="D18">
+        <v>403357922.25999963</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>43617</v>
+      </c>
+      <c r="B19">
+        <v>340118</v>
+      </c>
+      <c r="C19">
+        <v>15460735</v>
+      </c>
+      <c r="D19">
+        <v>447721018.35999978</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>43647</v>
+      </c>
+      <c r="B20">
+        <v>311274</v>
+      </c>
+      <c r="C20">
+        <v>16310883</v>
+      </c>
+      <c r="D20">
+        <v>575753661.58999991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>43678</v>
+      </c>
+      <c r="B21">
+        <v>314203</v>
+      </c>
+      <c r="C21">
+        <v>19976419</v>
+      </c>
+      <c r="D21">
+        <v>612311152.5999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>43709</v>
+      </c>
+      <c r="B22">
+        <v>330376</v>
+      </c>
+      <c r="C22">
+        <v>18386603</v>
+      </c>
+      <c r="D22">
+        <v>367370258.88999987</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>43739</v>
+      </c>
+      <c r="B23">
+        <v>372296</v>
+      </c>
+      <c r="C23">
+        <v>21756458</v>
+      </c>
+      <c r="D23">
+        <v>347900546.13999987</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>43770</v>
+      </c>
+      <c r="B24">
+        <v>378443</v>
+      </c>
+      <c r="C24">
+        <v>22088537</v>
+      </c>
+      <c r="D24">
+        <v>278966807.40999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>43800</v>
+      </c>
+      <c r="B25">
+        <v>417569</v>
+      </c>
+      <c r="C25">
+        <v>25184632</v>
+      </c>
+      <c r="D25">
+        <v>390474615.07000041</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>43831</v>
+      </c>
+      <c r="B26">
+        <v>421091</v>
+      </c>
+      <c r="C26">
+        <v>27628620</v>
+      </c>
+      <c r="D26">
+        <v>382109311.6099999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B27">
+        <v>324848</v>
+      </c>
+      <c r="C27">
+        <v>17810145</v>
+      </c>
+      <c r="D27">
+        <v>236730239.50999987</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B28">
+        <v>18594</v>
+      </c>
+      <c r="C28">
+        <v>588614</v>
+      </c>
+      <c r="D28">
+        <v>15387612.459999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>43922</v>
+      </c>
+      <c r="D29">
+        <v>5772604.0499999989</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B30">
+        <v>1164</v>
+      </c>
+      <c r="C30">
+        <v>28812</v>
+      </c>
+      <c r="D30">
+        <v>5886047.6499999985</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B31">
+        <v>24096</v>
+      </c>
+      <c r="C31">
+        <v>1012103</v>
+      </c>
+      <c r="D31">
+        <v>41043876.279999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B32">
+        <v>77880</v>
+      </c>
+      <c r="C32">
+        <v>4547189</v>
+      </c>
+      <c r="D32">
+        <v>131664507.99000007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B33">
+        <v>113132</v>
+      </c>
+      <c r="C33">
+        <v>6900404</v>
+      </c>
+      <c r="D33">
+        <v>187806238.88999993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B34">
+        <v>191944</v>
+      </c>
+      <c r="C34">
+        <v>5119702</v>
+      </c>
+      <c r="D34">
+        <v>113692983.67999987</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B35">
+        <v>161265</v>
+      </c>
+      <c r="C35">
+        <v>3569657</v>
+      </c>
+      <c r="D35">
+        <v>56452161.50999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B36">
+        <v>1096</v>
+      </c>
+      <c r="C36">
+        <v>38669</v>
+      </c>
+      <c r="D36">
+        <v>2540600.39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B37">
+        <v>371</v>
+      </c>
+      <c r="C37">
+        <v>1190</v>
+      </c>
+      <c r="D37">
+        <v>1541999.06</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B38">
+        <v>184</v>
+      </c>
+      <c r="C38">
+        <v>4312</v>
+      </c>
+      <c r="D38">
+        <v>578297.44000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>44228</v>
+      </c>
+      <c r="B39">
+        <v>2199</v>
+      </c>
+      <c r="C39">
+        <v>172016</v>
+      </c>
+      <c r="D39">
+        <v>3078391.83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B40">
+        <v>564</v>
+      </c>
+      <c r="C40">
+        <v>44837</v>
+      </c>
+      <c r="D40">
+        <v>1801875.2599999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>44287</v>
+      </c>
+      <c r="B41">
+        <v>2775</v>
+      </c>
+      <c r="C41">
+        <v>79313</v>
+      </c>
+      <c r="D41">
+        <v>1403873.0899999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>44317</v>
+      </c>
+      <c r="B42">
+        <v>74894</v>
+      </c>
+      <c r="C42">
+        <v>1745998</v>
+      </c>
+      <c r="D42">
+        <v>24269951.48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B43">
+        <v>161797</v>
+      </c>
+      <c r="C43">
+        <v>4405524</v>
+      </c>
+      <c r="D43">
+        <v>76461329.570000052</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B44">
+        <v>196960</v>
+      </c>
+      <c r="C44">
+        <v>8324032</v>
+      </c>
+      <c r="D44">
+        <v>160340515.23000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44409</v>
+      </c>
+      <c r="B45">
+        <v>208331</v>
+      </c>
+      <c r="C45">
+        <v>9802316</v>
+      </c>
+      <c r="D45">
+        <v>176647934.15999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B46">
+        <v>231102</v>
+      </c>
+      <c r="C46">
+        <v>8619963</v>
+      </c>
+      <c r="D46">
+        <v>149489929.46999991</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>44470</v>
+      </c>
+      <c r="B47">
+        <v>267633</v>
+      </c>
+      <c r="C47">
+        <v>12267458</v>
+      </c>
+      <c r="D47">
+        <v>171206872.56999993</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B48">
+        <v>273566</v>
+      </c>
+      <c r="C48">
+        <v>11553468</v>
+      </c>
+      <c r="D48">
+        <v>155770776.09999987</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B49">
+        <v>286275</v>
+      </c>
+      <c r="C49">
+        <v>12424144</v>
+      </c>
+      <c r="D49">
+        <v>167331403.20999992</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B50">
+        <v>274588</v>
+      </c>
+      <c r="C50">
+        <v>8596079</v>
+      </c>
+      <c r="D50">
+        <v>94075318.640000015</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B51">
+        <v>211534</v>
+      </c>
+      <c r="C51">
+        <v>9515434</v>
+      </c>
+      <c r="D51">
+        <v>119127267.94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B52">
+        <v>259459</v>
+      </c>
+      <c r="C52">
+        <v>13139227</v>
+      </c>
+      <c r="D52">
+        <v>161709307.42999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B53">
+        <v>279436</v>
+      </c>
+      <c r="C53">
+        <v>17212360</v>
+      </c>
+      <c r="D53">
+        <v>242821038</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>44682</v>
+      </c>
+      <c r="B54">
+        <v>256859</v>
+      </c>
+      <c r="C54">
+        <v>17689718</v>
+      </c>
+      <c r="D54">
+        <v>295178224.75999993</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B55">
+        <v>238332</v>
+      </c>
+      <c r="C55">
+        <v>19373645</v>
+      </c>
+      <c r="D55">
+        <v>358897175.70999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>44743</v>
+      </c>
+      <c r="B56">
+        <v>223495</v>
+      </c>
+      <c r="C56">
+        <v>22480067</v>
+      </c>
+      <c r="D56">
+        <v>437971136.07999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B57">
+        <v>207079</v>
+      </c>
+      <c r="C57">
+        <v>22570646</v>
+      </c>
+      <c r="D57">
+        <v>346544222.51999992</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B58">
+        <v>240886</v>
+      </c>
+      <c r="C58">
+        <v>16968493</v>
+      </c>
+      <c r="D58">
+        <v>263023175.62000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B59">
+        <v>282779</v>
+      </c>
+      <c r="C59">
+        <v>20136835</v>
+      </c>
+      <c r="D59">
+        <v>271289324.19000006</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>44866</v>
+      </c>
+      <c r="B60">
+        <v>270510</v>
+      </c>
+      <c r="C60">
+        <v>17451343</v>
+      </c>
+      <c r="D60">
+        <v>210792609.53000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B61">
+        <v>296500</v>
+      </c>
+      <c r="C61">
+        <v>19181267</v>
+      </c>
+      <c r="D61">
+        <v>255170204.12999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>